--- a/AGV HostName MAC IP.xlsx
+++ b/AGV HostName MAC IP.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="248">
-  <si>
-    <t>RobotName</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="186">
+  <si>
+    <t>Number</t>
   </si>
   <si>
     <t>RobotMac</t>
@@ -48,9 +48,6 @@
     <t>Update</t>
   </si>
   <si>
-    <t>蓝精灵001</t>
-  </si>
-  <si>
     <t>7c:03:ab:99:3c:ce</t>
   </si>
   <si>
@@ -72,30 +69,18 @@
     <t>172.22.191.72/alpha</t>
   </si>
   <si>
-    <t>蓝精灵002</t>
-  </si>
-  <si>
     <t>00:bb:60:3e:9f:22</t>
   </si>
   <si>
     <t>1195328755（无锡1）</t>
   </si>
   <si>
-    <t>蓝精灵003</t>
-  </si>
-  <si>
     <t>1171915509（珠海）</t>
   </si>
   <si>
-    <t>蓝精灵004</t>
-  </si>
-  <si>
     <t>1189609434（威海）</t>
   </si>
   <si>
-    <t>蓝精灵005</t>
-  </si>
-  <si>
     <t>dc:8b:28:1a:9e:3d</t>
   </si>
   <si>
@@ -105,9 +90,6 @@
     <t>172.22.191.16/alpha</t>
   </si>
   <si>
-    <t>蓝精灵006</t>
-  </si>
-  <si>
     <t>dc:8b:28:38:88:26</t>
   </si>
   <si>
@@ -120,9 +102,6 @@
     <t>172.22.192.138/alpha</t>
   </si>
   <si>
-    <t>蓝精灵007</t>
-  </si>
-  <si>
     <t>a0:a4:c5:a5:d8:95</t>
   </si>
   <si>
@@ -135,9 +114,6 @@
     <t>172.22.192.137/alpha</t>
   </si>
   <si>
-    <t>蓝精灵008</t>
-  </si>
-  <si>
     <t>a0:a4:c5:a6:07:d9</t>
   </si>
   <si>
@@ -150,9 +126,6 @@
     <t>172.22.192.135/alpha</t>
   </si>
   <si>
-    <t>蓝精灵009</t>
-  </si>
-  <si>
     <t>dc:8b:28:3c:9b:cd</t>
   </si>
   <si>
@@ -162,31 +135,13 @@
     <t>1415658612（无锡2）</t>
   </si>
   <si>
-    <t>蓝精灵010</t>
-  </si>
-  <si>
     <t>1566218791（无锡10）</t>
   </si>
   <si>
-    <t>蓝精灵011</t>
-  </si>
-  <si>
     <t>1641974105（无锡11）</t>
   </si>
   <si>
-    <t>蓝精灵012</t>
-  </si>
-  <si>
-    <t>蓝精灵013</t>
-  </si>
-  <si>
-    <t>蓝精灵014</t>
-  </si>
-  <si>
-    <t>蓝精灵015</t>
-  </si>
-  <si>
-    <t>AGV4.0  001</t>
+    <t>Update 18.04</t>
   </si>
   <si>
     <t>44:03:2c:71:e3:9b</t>
@@ -207,9 +162,6 @@
     <t>服务器：192.168.50.72</t>
   </si>
   <si>
-    <t>AGV4.0  002</t>
-  </si>
-  <si>
     <t>44:03:2c:71:fb:56</t>
   </si>
   <si>
@@ -225,9 +177,6 @@
     <t>192.168.50.102/alpha</t>
   </si>
   <si>
-    <t>AGV4.0  003</t>
-  </si>
-  <si>
     <t>94:b8:6d:21:e1:57</t>
   </si>
   <si>
@@ -240,15 +189,9 @@
     <t>192.168.50.103/alpha</t>
   </si>
   <si>
-    <t>AGV4.0  004</t>
-  </si>
-  <si>
     <t>1835089733（代傲）</t>
   </si>
   <si>
-    <t>AGV4.0  005</t>
-  </si>
-  <si>
     <t>1271780295（富士康1）</t>
   </si>
   <si>
@@ -258,57 +201,33 @@
     <t>192.168.59.111/alpha</t>
   </si>
   <si>
-    <t>AGV4.0  006</t>
-  </si>
-  <si>
     <t>1317925817（富士康2）</t>
   </si>
   <si>
     <t>192.168.59.112/alpha</t>
   </si>
   <si>
-    <t>AGV4.0  007</t>
-  </si>
-  <si>
     <t>1028009040（富士康3）</t>
   </si>
   <si>
     <t>192.168.59.113/alpha</t>
   </si>
   <si>
-    <t>AGV4.0  008</t>
-  </si>
-  <si>
     <t>1430096419（安徽海立1）</t>
   </si>
   <si>
-    <t>AGV4.0  009</t>
-  </si>
-  <si>
     <t>1408958779（上海海立2）</t>
   </si>
   <si>
-    <t>AGV4.0  010</t>
-  </si>
-  <si>
     <t>1430004978（安徽海立3）</t>
   </si>
   <si>
-    <t>AGV4.0  011</t>
-  </si>
-  <si>
     <t>1425570285（安徽海立4）</t>
   </si>
   <si>
-    <t>AGV4.0  012</t>
-  </si>
-  <si>
     <t>12641417009（南昌）</t>
   </si>
   <si>
-    <t>AGV4.0  013</t>
-  </si>
-  <si>
     <t>00:21:5c:d6:55:ab</t>
   </si>
   <si>
@@ -318,18 +237,9 @@
     <t>1491337737（上海老爷车）</t>
   </si>
   <si>
-    <t>AGV4.0  014</t>
-  </si>
-  <si>
     <t>hitrobot-2e9cd05</t>
   </si>
   <si>
-    <t>AGV4.0  015</t>
-  </si>
-  <si>
-    <t>AGV4.0  016</t>
-  </si>
-  <si>
     <t>a0:c5:89:95:97:8c</t>
   </si>
   <si>
@@ -348,90 +258,72 @@
     <t>调度服务器：10.63.155.11</t>
   </si>
   <si>
+    <t>e4:70:b8:87:aa:2d</t>
+  </si>
+  <si>
+    <t>hitrobot-hrg4-1b8bec</t>
+  </si>
+  <si>
+    <t>903715331（群创01）</t>
+  </si>
+  <si>
+    <t>10.63.151.52</t>
+  </si>
+  <si>
+    <t>wms服务器：10.63.155.12</t>
+  </si>
+  <si>
+    <t>hitrobot-hrg4-1136cfe</t>
+  </si>
+  <si>
+    <t>792309666（群创05）</t>
+  </si>
+  <si>
+    <t>10.63.151.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>00:c2:c6:f2:9a:86</t>
+  </si>
+  <si>
+    <t>hitrobot-hrg4-113ed1d</t>
+  </si>
+  <si>
+    <t>1630920932（群创13）</t>
+  </si>
+  <si>
+    <t>10.63.151.54</t>
+  </si>
+  <si>
+    <t>a0:c5:89:8e:d4:88</t>
+  </si>
+  <si>
+    <t>hitrobot-hrg4-2c05101</t>
+  </si>
+  <si>
+    <t>1683512433（群创11）</t>
+  </si>
+  <si>
+    <t>10.63.151.55</t>
+  </si>
+  <si>
+    <t>a0:c5:89:95:a4:2f</t>
+  </si>
+  <si>
+    <t>hitrobot-‭30FA302</t>
+  </si>
+  <si>
+    <t>1709578238（2号皮带车）</t>
+  </si>
+  <si>
+    <t>10.63.151.56</t>
+  </si>
+  <si>
     <t>√</t>
   </si>
   <si>
-    <t>AGV4.0  017</t>
-  </si>
-  <si>
-    <t>e4:70:b8:87:aa:2d</t>
-  </si>
-  <si>
-    <t>hitrobot-hrg4-1b8bec</t>
-  </si>
-  <si>
-    <t>903715331（群创01）</t>
-  </si>
-  <si>
-    <t>10.63.151.52</t>
-  </si>
-  <si>
-    <t>wms服务器：10.63.155.12</t>
-  </si>
-  <si>
-    <t>AGV4.0  018</t>
-  </si>
-  <si>
-    <t>hitrobot-hrg4-1136cfe</t>
-  </si>
-  <si>
-    <t>792309666（群创05）</t>
-  </si>
-  <si>
-    <t>10.63.151.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>AGV4.0  019</t>
-  </si>
-  <si>
-    <t>00:c2:c6:f2:9a:86</t>
-  </si>
-  <si>
-    <t>hitrobot-hrg4-113ed1d</t>
-  </si>
-  <si>
-    <t>1630920932（群创13）</t>
-  </si>
-  <si>
-    <t>10.63.151.54</t>
-  </si>
-  <si>
-    <t>AGV4.0  020</t>
-  </si>
-  <si>
-    <t>a0:c5:89:8e:d4:88</t>
-  </si>
-  <si>
-    <t>hitrobot-hrg4-2c05101</t>
-  </si>
-  <si>
-    <t>1683512433（群创11）</t>
-  </si>
-  <si>
-    <t>10.63.151.55</t>
-  </si>
-  <si>
-    <t>AGV4.0  021</t>
-  </si>
-  <si>
-    <t>a0:c5:89:95:a4:2f</t>
-  </si>
-  <si>
-    <t>hitrobot-‭30FA302</t>
-  </si>
-  <si>
-    <t>1709578238（2号皮带车）</t>
-  </si>
-  <si>
-    <t>10.63.151.56</t>
-  </si>
-  <si>
-    <t>AGV4.0  022</t>
-  </si>
-  <si>
     <t>44:03:2c:b6:84:24</t>
   </si>
   <si>
@@ -444,9 +336,6 @@
     <t>10.63.151.57</t>
   </si>
   <si>
-    <t>AGV4.0  023</t>
-  </si>
-  <si>
     <t>e4:70:b8:7a:61:c4</t>
   </si>
   <si>
@@ -459,9 +348,6 @@
     <t>10.63.151.58</t>
   </si>
   <si>
-    <t>AGV4.0  024</t>
-  </si>
-  <si>
     <t>a0:c5:89:6f:e7:08</t>
   </si>
   <si>
@@ -474,9 +360,6 @@
     <t>10.63.151.59</t>
   </si>
   <si>
-    <t>AGV4.0  025</t>
-  </si>
-  <si>
     <t>a0:c5:89:13:5c:b3</t>
   </si>
   <si>
@@ -489,9 +372,6 @@
     <t>10.63.151.60</t>
   </si>
   <si>
-    <t>AGV4.0  026</t>
-  </si>
-  <si>
     <t>e4:70:b8:87:a7:3a</t>
   </si>
   <si>
@@ -504,9 +384,6 @@
     <t>10.63.151.61</t>
   </si>
   <si>
-    <t>AGV4.0  027</t>
-  </si>
-  <si>
     <t>e4:70:b8:87:aa:af</t>
   </si>
   <si>
@@ -516,9 +393,6 @@
     <t>10.63.151.62</t>
   </si>
   <si>
-    <t>AGV4.0  028</t>
-  </si>
-  <si>
     <t>44:03:2c:b6:85:05</t>
   </si>
   <si>
@@ -531,9 +405,6 @@
     <t>10.63.151.63</t>
   </si>
   <si>
-    <t>AGV4.0  029</t>
-  </si>
-  <si>
     <t>a0:c5:89:8e:c9:ac</t>
   </si>
   <si>
@@ -546,9 +417,6 @@
     <t>10.63.151.64</t>
   </si>
   <si>
-    <t>AGV4.0  030</t>
-  </si>
-  <si>
     <t>e4:70:b8:7a:4b:67</t>
   </si>
   <si>
@@ -561,9 +429,6 @@
     <t>10.63.151.65</t>
   </si>
   <si>
-    <t>AGV4.0  031</t>
-  </si>
-  <si>
     <t>f8:59:71:f0:ab:6d</t>
   </si>
   <si>
@@ -576,9 +441,6 @@
     <t>10.63.151.66</t>
   </si>
   <si>
-    <t>AGV4.0  032</t>
-  </si>
-  <si>
     <t>44:03:2c:72:1f:6e</t>
   </si>
   <si>
@@ -591,9 +453,6 @@
     <t>10.63.151.67</t>
   </si>
   <si>
-    <t>AGV4.0  033</t>
-  </si>
-  <si>
     <t>44:03:2c:b6:3e:bf</t>
   </si>
   <si>
@@ -606,9 +465,6 @@
     <t>10.63.151.68</t>
   </si>
   <si>
-    <t>AGV4.0  034</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 44:03:2c:72:0a:d3 </t>
   </si>
   <si>
@@ -639,12 +495,12 @@
     <t>1929090829（服务器）</t>
   </si>
   <si>
+    <t>hitrobot-server:hitrob0t</t>
+  </si>
+  <si>
     <t>10.63.155.13</t>
   </si>
   <si>
-    <t>AGF 001</t>
-  </si>
-  <si>
     <t>a0:c5:89:50:01:63</t>
   </si>
   <si>
@@ -663,9 +519,6 @@
     <t>192.168.8.211</t>
   </si>
   <si>
-    <t>AGF 002</t>
-  </si>
-  <si>
     <t>a0:c5:89:8e:f3:5a</t>
   </si>
   <si>
@@ -678,9 +531,6 @@
     <t>192.168.8.212</t>
   </si>
   <si>
-    <t>AGF 003</t>
-  </si>
-  <si>
     <t>a0:c5:89:47:76:d3</t>
   </si>
   <si>
@@ -693,9 +543,6 @@
     <t>192.168.8.213</t>
   </si>
   <si>
-    <t>AGF 004</t>
-  </si>
-  <si>
     <t>a0:c5:89:48:d1:4f</t>
   </si>
   <si>
@@ -708,9 +555,6 @@
     <t>192.168.8.214</t>
   </si>
   <si>
-    <t>AGF 005</t>
-  </si>
-  <si>
     <t>a0:c5:89:47:b9:4f</t>
   </si>
   <si>
@@ -723,43 +567,13 @@
     <t>192.168.8.215</t>
   </si>
   <si>
-    <t>AGF 006</t>
-  </si>
-  <si>
     <t>1444102831（欧诺旧）</t>
   </si>
   <si>
-    <t>AGF 007</t>
-  </si>
-  <si>
     <t>1319460263（绍兴）</t>
   </si>
   <si>
-    <t>AGF 008</t>
-  </si>
-  <si>
     <t>1206604628（广州）</t>
-  </si>
-  <si>
-    <t>AGF 009</t>
-  </si>
-  <si>
-    <t>AGF 010</t>
-  </si>
-  <si>
-    <t>AGF 011</t>
-  </si>
-  <si>
-    <t>AGF 012</t>
-  </si>
-  <si>
-    <t>AGF 013</t>
-  </si>
-  <si>
-    <t>AGF 014</t>
-  </si>
-  <si>
-    <t>AGF 015</t>
   </si>
 </sst>
 </file>
@@ -767,10 +581,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -843,16 +657,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,6 +674,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -873,32 +694,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -919,6 +716,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -926,23 +724,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -957,9 +756,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1017,25 +831,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,25 +987,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,115 +999,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1240,16 +1054,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1265,6 +1079,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1286,15 +1118,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1304,11 +1127,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1316,23 +1145,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1344,10 +1158,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1356,16 +1170,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1374,119 +1188,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1566,6 +1380,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1928,22 +1748,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.1203703703704" style="13" customWidth="1"/>
+    <col min="1" max="1" width="14.1203703703704" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.2222222222222" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.0462962962963" style="3" customWidth="1"/>
     <col min="4" max="4" width="26.3425925925926" style="4" customWidth="1"/>
     <col min="5" max="5" width="27.8148148148148" style="5" customWidth="1"/>
     <col min="6" max="6" width="14.1111111111111" style="2" customWidth="1"/>
     <col min="7" max="7" width="14" style="2" customWidth="1"/>
-    <col min="8" max="8" width="26.5" style="28" customWidth="1"/>
+    <col min="8" max="8" width="26.5" style="30" customWidth="1"/>
     <col min="9" max="9" width="29.3611111111111" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
     <col min="11" max="11" width="66.5555555555556" customWidth="1"/>
@@ -1982,214 +1802,309 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="H2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="29" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="13" t="s">
+      <c r="C3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="14" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="C13" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="13" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="13">
         <v>21</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="13">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="13" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="13">
         <v>23</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="5" t="s">
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="13">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="13" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="13">
         <v>25</v>
       </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="13">
         <v>26</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5" t="s">
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="13">
         <v>27</v>
       </c>
-      <c r="H6" s="28" t="s">
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="13">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="13" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="13">
         <v>29</v>
       </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="13">
         <v>30</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="13">
         <v>31</v>
       </c>
-      <c r="E7" s="5" t="s">
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="13">
         <v>32</v>
       </c>
-      <c r="H7" s="28" t="s">
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="13">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="13" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="13">
         <v>34</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2207,8 +2122,8 @@
   <sheetPr/>
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2222,7 +2137,7 @@
     <col min="7" max="7" width="14" style="2" customWidth="1"/>
     <col min="8" max="8" width="26.5" style="6" customWidth="1"/>
     <col min="9" max="9" width="29.3611111111111" customWidth="1"/>
-    <col min="10" max="10" width="14" style="19" customWidth="1"/>
+    <col min="10" max="10" width="25.8888888888889" style="19" customWidth="1"/>
     <col min="11" max="11" width="66.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2255,673 +2170,651 @@
         <v>8</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:9">
-      <c r="A2" s="13" t="s">
-        <v>56</v>
+      <c r="A2" s="13">
+        <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="6" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:8">
-      <c r="A3" s="13" t="s">
-        <v>63</v>
+      <c r="A3" s="13">
+        <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="G3" s="2">
         <v>12345678</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" ht="15.6" spans="1:8">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="1:8">
-      <c r="A4" s="13" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="20" t="s">
+    </row>
+    <row r="14" ht="15.6" spans="1:5">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E14" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="6" t="s">
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" ht="15.6" spans="1:5">
-      <c r="A14" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="E15" s="18">
         <v>1415529238</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:10">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="27"/>
+    </row>
+    <row r="17" ht="15.6" spans="1:10">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s">
+        <v>79</v>
+      </c>
+      <c r="J17" s="28"/>
+    </row>
+    <row r="18" ht="15.6" spans="1:10">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="28"/>
+    </row>
+    <row r="19" ht="15.6" spans="1:10">
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="28"/>
+    </row>
+    <row r="20" ht="15.6" spans="1:10">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" s="28"/>
+    </row>
+    <row r="21" ht="15.6" spans="1:10">
+      <c r="A21" s="13">
+        <v>20</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J21" s="28"/>
+    </row>
+    <row r="22" ht="15.6" spans="1:10">
+      <c r="A22" s="13">
+        <v>21</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" ht="15.6" spans="1:10">
+      <c r="A23" s="13">
+        <v>22</v>
+      </c>
+      <c r="B23" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" ht="15.6" spans="1:10">
-      <c r="A17" s="13" t="s">
+      <c r="C23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="E23" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="23" t="s">
+      <c r="H23" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="J23" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" ht="15.6" spans="1:10">
+      <c r="A24" s="13">
+        <v>23</v>
+      </c>
+      <c r="B24" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="C24" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="E24" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="I17" t="s">
+      <c r="H24" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="J17" s="27" t="s">
+      <c r="J24" s="28"/>
+    </row>
+    <row r="25" ht="15.6" spans="1:10">
+      <c r="A25" s="13">
+        <v>24</v>
+      </c>
+      <c r="B25" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="18" ht="15.6" spans="1:10">
-      <c r="A18" s="13" t="s">
+      <c r="C25" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="E25" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="23" t="s">
+      <c r="F25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="J25" s="28"/>
+    </row>
+    <row r="26" ht="15.6" spans="1:10">
+      <c r="A26" s="13">
+        <v>25</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="C26" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="I18" t="s">
+      <c r="E26" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="J18" s="27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" ht="15.6" spans="1:10">
-      <c r="A19" s="13" t="s">
+      <c r="H26" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="23" t="s">
+      <c r="I26" t="s">
+        <v>88</v>
+      </c>
+      <c r="J26" s="28"/>
+    </row>
+    <row r="27" ht="15.6" spans="1:10">
+      <c r="A27" s="13">
+        <v>26</v>
+      </c>
+      <c r="B27" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="C27" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="E27" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="I19" t="s">
+      <c r="H27" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="J19" s="27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" ht="15.6" spans="1:10">
-      <c r="A20" s="13" t="s">
+      <c r="J27" s="28"/>
+    </row>
+    <row r="28" ht="15.6" spans="1:10">
+      <c r="A28" s="13">
+        <v>27</v>
+      </c>
+      <c r="B28" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="C28" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="23" t="s">
+      <c r="H28" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="J28" s="28"/>
+    </row>
+    <row r="29" ht="15.6" spans="1:10">
+      <c r="A29" s="13">
+        <v>28</v>
+      </c>
+      <c r="B29" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="C29" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="J20" s="27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" ht="15.6" spans="1:10">
-      <c r="A21" s="13" t="s">
+      <c r="E29" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="H29" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="23" t="s">
+      <c r="J29" s="28"/>
+    </row>
+    <row r="30" ht="15.6" spans="1:10">
+      <c r="A30" s="13">
+        <v>29</v>
+      </c>
+      <c r="B30" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="C30" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="E30" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J21" s="27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" ht="15.6" spans="1:10">
-      <c r="A22" s="13" t="s">
+      <c r="H30" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="J30" s="27"/>
+    </row>
+    <row r="31" ht="15.6" spans="1:10">
+      <c r="A31" s="13">
+        <v>30</v>
+      </c>
+      <c r="B31" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="24" t="s">
+      <c r="C31" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E31" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="H31" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="J22" s="27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" ht="15.6" spans="1:10">
-      <c r="A23" s="13" t="s">
+      <c r="J31" s="28"/>
+    </row>
+    <row r="32" ht="15.6" spans="1:10">
+      <c r="A32" s="13">
+        <v>31</v>
+      </c>
+      <c r="B32" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="C32" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="24" t="s">
+      <c r="E32" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="H32" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="H23" s="25" t="s">
+      <c r="J32" s="27"/>
+    </row>
+    <row r="33" ht="15.6" spans="1:10">
+      <c r="A33" s="13">
+        <v>32</v>
+      </c>
+      <c r="B33" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="J23" s="27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" ht="15.6" spans="1:10">
-      <c r="A24" s="13" t="s">
+      <c r="C33" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="E33" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="23" t="s">
+      <c r="H33" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="J33" s="28"/>
+    </row>
+    <row r="34" ht="15.6" spans="1:10">
+      <c r="A34" s="13">
+        <v>33</v>
+      </c>
+      <c r="B34" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="C34" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="J24" s="27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" ht="15.6" spans="1:10">
-      <c r="A25" s="13" t="s">
+      <c r="E34" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="H34" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="23" t="s">
+      <c r="J34" s="28"/>
+    </row>
+    <row r="35" ht="15.6" spans="1:10">
+      <c r="A35" s="13">
+        <v>34</v>
+      </c>
+      <c r="B35" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="C35" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H25" s="6" t="s">
+      <c r="E35" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="J25" s="27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" ht="15.6" spans="1:10">
-      <c r="A26" s="13" t="s">
+      <c r="H35" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="I26" t="s">
-        <v>121</v>
-      </c>
-      <c r="J26" s="27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" ht="15.6" spans="1:10">
-      <c r="A27" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="J27" s="27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" ht="15.6" spans="1:10">
-      <c r="A28" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="J28" s="27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" ht="15.6" spans="1:10">
-      <c r="A29" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="J29" s="27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" ht="15.6" spans="1:8">
-      <c r="A30" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="31" ht="15.6" spans="1:10">
-      <c r="A31" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="J31" s="27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" ht="15.6" spans="1:8">
-      <c r="A32" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="33" ht="15.6" spans="1:10">
-      <c r="A33" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="J33" s="27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" ht="15.6" spans="1:10">
-      <c r="A34" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="J34" s="27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" ht="15.6" spans="1:8">
-      <c r="A35" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="H35" s="25" t="s">
-        <v>200</v>
+      <c r="J35" s="29" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="4:4">
@@ -2932,27 +2825,30 @@
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="17" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
       <c r="B39" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>205</v>
+        <v>156</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>157</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>207</v>
+        <v>159</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="2:2">
@@ -2961,7 +2857,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F19:G19"/>
@@ -2981,6 +2877,7 @@
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F39:G39"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2994,7 +2891,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3045,232 +2942,254 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="13" t="s">
-        <v>208</v>
+      <c r="A2" s="13">
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="13" t="s">
-        <v>244</v>
-      </c>
       <c r="C13" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="13" t="s">
-        <v>245</v>
+      <c r="A14" s="13">
+        <v>13</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="13" t="s">
-        <v>246</v>
+      <c r="A15" s="13">
+        <v>14</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="13" t="s">
-        <v>247</v>
+      <c r="A16" s="13">
+        <v>15</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="13"/>
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="13"/>
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="13"/>
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="13"/>
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="13"/>
+      <c r="A21" s="13">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="13"/>
+      <c r="A22" s="13">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="13"/>
+      <c r="A23" s="13">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="13"/>
+      <c r="A24" s="13">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="13"/>
+      <c r="A25" s="13">
+        <v>24</v>
+      </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="13"/>
+      <c r="A26" s="13">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="13"/>
+      <c r="A27" s="13">
+        <v>26</v>
+      </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="13"/>

--- a/AGV HostName MAC IP.xlsx
+++ b/AGV HostName MAC IP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17904" windowHeight="9155" activeTab="1"/>
+    <workbookView windowWidth="14795" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="蓝精灵" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="188">
   <si>
     <t>Number</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>1641974105（无锡11）</t>
+  </si>
+  <si>
+    <t>hitrobot-30ee812</t>
+  </si>
+  <si>
+    <t>hitrobot-30ee813</t>
   </si>
   <si>
     <t>Update 18.04</t>
@@ -581,10 +587,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -651,24 +657,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -679,6 +678,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -688,14 +688,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,23 +725,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -756,24 +762,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -785,6 +775,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -831,60 +837,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -892,126 +1018,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1053,6 +1059,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1068,34 +1083,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1112,17 +1105,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1145,8 +1127,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1158,10 +1164,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1170,16 +1176,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1191,112 +1197,112 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1750,8 +1756,8 @@
   <sheetPr/>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1980,20 +1986,26 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" s="13">
         <v>12</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="13">
         <v>13</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>11</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2122,7 +2134,7 @@
   <sheetPr/>
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -2170,7 +2182,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:9">
@@ -2178,26 +2190,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:8">
@@ -2205,25 +2217,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G3" s="2">
         <v>12345678</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="1:8">
@@ -2231,19 +2243,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2254,7 +2266,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2265,13 +2277,13 @@
         <v>11</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2282,10 +2294,10 @@
         <v>11</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2296,10 +2308,10 @@
         <v>11</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2310,7 +2322,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2321,7 +2333,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2332,7 +2344,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2343,7 +2355,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2354,7 +2366,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" ht="15.6" spans="1:5">
@@ -2362,16 +2374,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2382,7 +2394,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E15" s="18">
         <v>1415529238</v>
@@ -2402,25 +2414,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J17" s="28"/>
     </row>
@@ -2429,22 +2441,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J18" s="28"/>
     </row>
@@ -2453,22 +2465,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J19" s="28"/>
     </row>
@@ -2477,19 +2489,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J20" s="28"/>
     </row>
@@ -2498,19 +2510,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J21" s="28"/>
     </row>
@@ -2519,22 +2531,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" ht="15.6" spans="1:10">
@@ -2542,22 +2554,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="J23" s="29" t="s">
         <v>103</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="J23" s="29" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="24" ht="15.6" spans="1:10">
@@ -2565,19 +2577,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J24" s="28"/>
     </row>
@@ -2586,22 +2598,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J25" s="28"/>
     </row>
@@ -2610,22 +2622,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J26" s="28"/>
     </row>
@@ -2634,19 +2646,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J27" s="28"/>
     </row>
@@ -2655,16 +2667,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J28" s="28"/>
     </row>
@@ -2673,19 +2685,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J29" s="28"/>
     </row>
@@ -2694,19 +2706,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J30" s="27"/>
     </row>
@@ -2715,19 +2727,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J31" s="28"/>
     </row>
@@ -2736,19 +2748,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J32" s="27"/>
     </row>
@@ -2757,19 +2769,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J33" s="28"/>
     </row>
@@ -2778,19 +2790,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J34" s="28"/>
     </row>
@@ -2799,22 +2811,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J35" s="29" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="4:4">
@@ -2825,30 +2837,30 @@
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="17" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="17" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="2:2">
@@ -2946,25 +2958,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2972,19 +2984,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2992,19 +3004,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3012,19 +3024,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3032,19 +3044,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3055,7 +3067,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3066,7 +3078,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3077,7 +3089,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:3">

--- a/AGV HostName MAC IP.xlsx
+++ b/AGV HostName MAC IP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14795" windowHeight="9240"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="蓝精灵" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="196">
   <si>
     <t>Number</t>
   </si>
@@ -51,108 +51,129 @@
     <t>7c:03:ab:99:3c:ce</t>
   </si>
   <si>
+    <t>10.42.0.1</t>
+  </si>
+  <si>
+    <t>hitrobot-2e6a02</t>
+  </si>
+  <si>
+    <t>1169206307（广州1）</t>
+  </si>
+  <si>
+    <t>jabil_agv</t>
+  </si>
+  <si>
+    <t>J@123ForAGV</t>
+  </si>
+  <si>
+    <t>172.22.191.72/alpha</t>
+  </si>
+  <si>
+    <t>00:bb:60:3e:9f:22</t>
+  </si>
+  <si>
+    <t>1195328755（无锡1）</t>
+  </si>
+  <si>
+    <t>1171915509（珠海）</t>
+  </si>
+  <si>
+    <t>1189609434（威海）</t>
+  </si>
+  <si>
+    <t>dc:8b:28:1a:9e:3d</t>
+  </si>
+  <si>
+    <t>1493200192（广州2）</t>
+  </si>
+  <si>
+    <t>172.22.191.16/alpha</t>
+  </si>
+  <si>
+    <t>dc:8b:28:38:88:26</t>
+  </si>
+  <si>
+    <t>hitrobot-2e89706</t>
+  </si>
+  <si>
+    <t>1303841536（solaredge）</t>
+  </si>
+  <si>
+    <t>172.22.192.138/alpha</t>
+  </si>
+  <si>
+    <t>a0:a4:c5:a5:d8:95</t>
+  </si>
+  <si>
+    <t>hitrobot-2e90b07</t>
+  </si>
+  <si>
+    <t>1295454572（zebra1）</t>
+  </si>
+  <si>
+    <t>172.22.192.137/alpha</t>
+  </si>
+  <si>
+    <t>a0:a4:c5:a6:07:d9</t>
+  </si>
+  <si>
+    <t>hitrobot-2e90b08</t>
+  </si>
+  <si>
+    <t>1319527015（zebar2）</t>
+  </si>
+  <si>
+    <t>172.22.192.135/alpha</t>
+  </si>
+  <si>
+    <t>dc:8b:28:3c:9b:cd</t>
+  </si>
+  <si>
+    <t>hitrobot-2e90b09</t>
+  </si>
+  <si>
+    <t>1415658612（无锡2）</t>
+  </si>
+  <si>
+    <t>1566218791（无锡10）</t>
+  </si>
+  <si>
+    <t>1641974105（无锡11）</t>
+  </si>
+  <si>
+    <t>hitrobot-30ee812</t>
+  </si>
+  <si>
+    <t>hitrobot-30ee813</t>
+  </si>
+  <si>
+    <t>hitrobot-30ee814</t>
+  </si>
+  <si>
+    <t>hitrobot-30ee815</t>
+  </si>
+  <si>
+    <t>hitrobot-30ee816</t>
+  </si>
+  <si>
+    <t>hitrobot-30ee817</t>
+  </si>
+  <si>
+    <t>hitrobot-30ee818</t>
+  </si>
+  <si>
+    <t>hitrobot-30ee819</t>
+  </si>
+  <si>
+    <t>Update 18.04</t>
+  </si>
+  <si>
+    <t>44:03:2c:71:e3:9b</t>
+  </si>
+  <si>
     <t>10.42.0.1/alpha</t>
   </si>
   <si>
-    <t>hitrobot-2e6a02</t>
-  </si>
-  <si>
-    <t>1169206307（广州1）</t>
-  </si>
-  <si>
-    <t>jabil_agv</t>
-  </si>
-  <si>
-    <t>J@123ForAGV</t>
-  </si>
-  <si>
-    <t>172.22.191.72/alpha</t>
-  </si>
-  <si>
-    <t>00:bb:60:3e:9f:22</t>
-  </si>
-  <si>
-    <t>1195328755（无锡1）</t>
-  </si>
-  <si>
-    <t>1171915509（珠海）</t>
-  </si>
-  <si>
-    <t>1189609434（威海）</t>
-  </si>
-  <si>
-    <t>dc:8b:28:1a:9e:3d</t>
-  </si>
-  <si>
-    <t>1493200192（广州2）</t>
-  </si>
-  <si>
-    <t>172.22.191.16/alpha</t>
-  </si>
-  <si>
-    <t>dc:8b:28:38:88:26</t>
-  </si>
-  <si>
-    <t>hitrobot-2e89706</t>
-  </si>
-  <si>
-    <t>1303841536（solaredge）</t>
-  </si>
-  <si>
-    <t>172.22.192.138/alpha</t>
-  </si>
-  <si>
-    <t>a0:a4:c5:a5:d8:95</t>
-  </si>
-  <si>
-    <t>hitrobot-2e90b07</t>
-  </si>
-  <si>
-    <t>1295454572（zebra1）</t>
-  </si>
-  <si>
-    <t>172.22.192.137/alpha</t>
-  </si>
-  <si>
-    <t>a0:a4:c5:a6:07:d9</t>
-  </si>
-  <si>
-    <t>hitrobot-2e90b08</t>
-  </si>
-  <si>
-    <t>1319527015（zebar2）</t>
-  </si>
-  <si>
-    <t>172.22.192.135/alpha</t>
-  </si>
-  <si>
-    <t>dc:8b:28:3c:9b:cd</t>
-  </si>
-  <si>
-    <t>hitrobot-2e90b09</t>
-  </si>
-  <si>
-    <t>1415658612（无锡2）</t>
-  </si>
-  <si>
-    <t>1566218791（无锡10）</t>
-  </si>
-  <si>
-    <t>1641974105（无锡11）</t>
-  </si>
-  <si>
-    <t>hitrobot-30ee812</t>
-  </si>
-  <si>
-    <t>hitrobot-30ee813</t>
-  </si>
-  <si>
-    <t>Update 18.04</t>
-  </si>
-  <si>
-    <t>44:03:2c:71:e3:9b</t>
-  </si>
-  <si>
     <t>hitrobot-2c3de01</t>
   </si>
   <si>
@@ -303,6 +324,9 @@
     <t>10.63.151.54</t>
   </si>
   <si>
+    <t>√</t>
+  </si>
+  <si>
     <t>a0:c5:89:8e:d4:88</t>
   </si>
   <si>
@@ -327,9 +351,6 @@
     <t>10.63.151.56</t>
   </si>
   <si>
-    <t>√</t>
-  </si>
-  <si>
     <t>44:03:2c:b6:84:24</t>
   </si>
   <si>
@@ -433,6 +454,9 @@
   </si>
   <si>
     <t>10.63.151.65</t>
+  </si>
+  <si>
+    <t>未外接usb</t>
   </si>
   <si>
     <t>f8:59:71:f0:ab:6d</t>
@@ -588,11 +612,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -653,6 +677,12 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -663,11 +693,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -680,59 +716,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -762,8 +746,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -786,13 +793,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -837,187 +867,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,6 +1095,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1068,17 +1134,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1090,21 +1150,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1133,26 +1178,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1164,10 +1200,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1176,137 +1212,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1388,6 +1424,9 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1397,13 +1436,16 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1757,7 +1799,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1769,7 +1811,7 @@
     <col min="5" max="5" width="27.8148148148148" style="5" customWidth="1"/>
     <col min="6" max="6" width="14.1111111111111" style="2" customWidth="1"/>
     <col min="7" max="7" width="14" style="2" customWidth="1"/>
-    <col min="8" max="8" width="26.5" style="30" customWidth="1"/>
+    <col min="8" max="8" width="26.5" style="32" customWidth="1"/>
     <col min="9" max="9" width="29.3611111111111" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
     <col min="11" max="11" width="66.5555555555556" customWidth="1"/>
@@ -1829,7 +1871,7 @@
       <c r="G2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="33" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1851,7 +1893,7 @@
       <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="14" t="s">
         <v>11</v>
       </c>
@@ -1883,7 +1925,7 @@
       <c r="E6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="32" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1903,7 +1945,7 @@
       <c r="E7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="32" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1923,7 +1965,7 @@
       <c r="E8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="32" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1943,7 +1985,7 @@
       <c r="E9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="32" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2008,40 +2050,76 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:5">
       <c r="A15" s="13">
         <v>14</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="5">
+        <v>445137761</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="13">
         <v>15</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="D16" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="13">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="C17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="13">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="C18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="13">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="C19" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="5">
+        <v>446285565</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="13">
         <v>19</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -2134,8 +2212,8 @@
   <sheetPr/>
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2182,7 +2260,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:9">
@@ -2190,26 +2268,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="6" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:8">
@@ -2217,25 +2295,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2">
         <v>12345678</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="1:8">
@@ -2243,19 +2321,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2263,10 +2341,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2274,16 +2352,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2291,13 +2369,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2305,13 +2383,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2319,10 +2397,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2330,10 +2408,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2341,10 +2419,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2352,10 +2430,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2363,10 +2441,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" ht="15.6" spans="1:5">
@@ -2374,16 +2452,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2391,10 +2469,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E15" s="18">
         <v>1415529238</v>
@@ -2405,148 +2483,150 @@
         <v>15</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" s="27"/>
+        <v>51</v>
+      </c>
+      <c r="J16" s="28"/>
     </row>
     <row r="17" ht="15.6" spans="1:10">
       <c r="A17" s="13">
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
-      </c>
-      <c r="J17" s="28"/>
+        <v>88</v>
+      </c>
+      <c r="J17" s="29"/>
     </row>
     <row r="18" ht="15.6" spans="1:10">
       <c r="A18" s="13">
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I18" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" s="28"/>
+        <v>93</v>
+      </c>
+      <c r="J18" s="29"/>
     </row>
     <row r="19" ht="15.6" spans="1:10">
       <c r="A19" s="13">
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="I19" t="s">
-        <v>90</v>
-      </c>
-      <c r="J19" s="28"/>
+        <v>97</v>
+      </c>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" ht="15.6" spans="1:10">
       <c r="A20" s="13">
         <v>19</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="J20" s="28"/>
+        <v>51</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="21" ht="15.6" spans="1:10">
       <c r="A21" s="13">
         <v>20</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="J21" s="28"/>
+        <v>106</v>
+      </c>
+      <c r="J21" s="29"/>
     </row>
     <row r="22" ht="15.6" spans="1:10">
       <c r="A22" s="13">
         <v>21</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="H22" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="J22" s="30" t="s">
         <v>102</v>
-      </c>
-      <c r="J22" s="29" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="23" ht="15.6" spans="1:10">
@@ -2554,22 +2634,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="J23" s="29" t="s">
-        <v>103</v>
+        <v>114</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="24" ht="15.6" spans="1:10">
@@ -2577,256 +2657,258 @@
         <v>23</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="J24" s="28"/>
+        <v>118</v>
+      </c>
+      <c r="J24" s="29"/>
     </row>
     <row r="25" ht="15.6" spans="1:10">
       <c r="A25" s="13">
         <v>24</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="J25" s="28"/>
+        <v>122</v>
+      </c>
+      <c r="J25" s="29"/>
     </row>
     <row r="26" ht="15.6" spans="1:10">
       <c r="A26" s="13">
         <v>25</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="I26" t="s">
-        <v>90</v>
-      </c>
-      <c r="J26" s="28"/>
+        <v>97</v>
+      </c>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" ht="15.6" spans="1:10">
       <c r="A27" s="13">
         <v>26</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="J27" s="28"/>
+        <v>130</v>
+      </c>
+      <c r="J27" s="29"/>
     </row>
     <row r="28" ht="15.6" spans="1:10">
       <c r="A28" s="13">
         <v>27</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="J28" s="28"/>
+        <v>133</v>
+      </c>
+      <c r="J28" s="29"/>
     </row>
     <row r="29" ht="15.6" spans="1:10">
       <c r="A29" s="13">
         <v>28</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="J29" s="28"/>
+        <v>137</v>
+      </c>
+      <c r="J29" s="29"/>
     </row>
     <row r="30" ht="15.6" spans="1:10">
       <c r="A30" s="13">
         <v>29</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="J30" s="27"/>
+        <v>141</v>
+      </c>
+      <c r="J30" s="28"/>
     </row>
     <row r="31" ht="15.6" spans="1:10">
       <c r="A31" s="13">
         <v>30</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J31" s="28"/>
+        <v>144</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="J31" s="31" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="32" ht="15.6" spans="1:10">
       <c r="A32" s="13">
         <v>31</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="J32" s="27"/>
+        <v>150</v>
+      </c>
+      <c r="J32" s="28"/>
     </row>
     <row r="33" ht="15.6" spans="1:10">
       <c r="A33" s="13">
         <v>32</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="J33" s="28"/>
+        <v>154</v>
+      </c>
+      <c r="J33" s="29"/>
     </row>
     <row r="34" ht="15.6" spans="1:10">
       <c r="A34" s="13">
         <v>33</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="J34" s="28"/>
+        <v>158</v>
+      </c>
+      <c r="J34" s="29"/>
     </row>
     <row r="35" ht="15.6" spans="1:10">
       <c r="A35" s="13">
         <v>34</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="J35" s="29" t="s">
-        <v>103</v>
+        <v>162</v>
+      </c>
+      <c r="J35" s="30" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="4:4">
@@ -2837,30 +2919,30 @@
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="17" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="17" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="2:2">
@@ -2958,25 +3040,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2984,19 +3066,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3004,19 +3086,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3024,19 +3106,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3044,19 +3126,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3064,10 +3146,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3075,10 +3157,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3086,10 +3168,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3097,7 +3179,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3105,7 +3187,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3113,7 +3195,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3121,7 +3203,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3129,7 +3211,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3137,7 +3219,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3145,7 +3227,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:1">

--- a/AGV HostName MAC IP.xlsx
+++ b/AGV HostName MAC IP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="18600" windowHeight="8040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="蓝精灵" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="196">
   <si>
     <t>Number</t>
   </si>
@@ -390,7 +390,7 @@
     <t>a0:c5:89:13:5c:b3</t>
   </si>
   <si>
-    <t>hitrobot-hrg4-11409a1</t>
+    <t>hitrobot-‭30FA315</t>
   </si>
   <si>
     <t>1050735586（群创15）</t>
@@ -612,9 +612,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -687,6 +687,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -694,7 +732,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -708,7 +769,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -730,78 +799,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -873,187 +873,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,21 +1095,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1129,27 +1114,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1165,6 +1130,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1200,145 +1200,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1798,23 +1798,23 @@
   <sheetPr/>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.1203703703704" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.2222222222222" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.0462962962963" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.3425925925926" style="4" customWidth="1"/>
-    <col min="5" max="5" width="27.8148148148148" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.1111111111111" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.1238938053097" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.2212389380531" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.0442477876106" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.3451327433628" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.8141592920354" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.1150442477876" style="2" customWidth="1"/>
     <col min="7" max="7" width="14" style="2" customWidth="1"/>
-    <col min="8" max="8" width="26.5" style="32" customWidth="1"/>
-    <col min="9" max="9" width="29.3611111111111" customWidth="1"/>
+    <col min="8" max="8" width="26.5044247787611" style="32" customWidth="1"/>
+    <col min="9" max="9" width="29.3628318584071" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="66.5555555555556" customWidth="1"/>
+    <col min="11" max="11" width="66.5575221238938" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="1:10">
@@ -2212,23 +2212,23 @@
   <sheetPr/>
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="E14" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.1203703703704" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.2222222222222" style="17" customWidth="1"/>
-    <col min="3" max="3" width="19.0462962962963" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.3425925925926" style="4" customWidth="1"/>
-    <col min="5" max="5" width="27.8148148148148" style="18" customWidth="1"/>
-    <col min="6" max="6" width="14.1111111111111" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.1238938053097" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.2212389380531" style="17" customWidth="1"/>
+    <col min="3" max="3" width="19.0442477876106" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.3451327433628" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.8141592920354" style="18" customWidth="1"/>
+    <col min="6" max="6" width="14.1150442477876" style="2" customWidth="1"/>
     <col min="7" max="7" width="14" style="2" customWidth="1"/>
-    <col min="8" max="8" width="26.5" style="6" customWidth="1"/>
-    <col min="9" max="9" width="29.3611111111111" customWidth="1"/>
-    <col min="10" max="10" width="25.8888888888889" style="19" customWidth="1"/>
-    <col min="11" max="11" width="66.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="26.5044247787611" style="6" customWidth="1"/>
+    <col min="9" max="9" width="29.3628318584071" customWidth="1"/>
+    <col min="10" max="10" width="25.8849557522124" style="19" customWidth="1"/>
+    <col min="11" max="11" width="66.5575221238938" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="1:10">
@@ -2263,7 +2263,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="1:9">
+    <row r="2" ht="15.75" spans="1:9">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="1:8">
+    <row r="3" ht="15.75" spans="1:8">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="1:8">
+    <row r="4" ht="15.75" spans="1:8">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="1:5">
+    <row r="14" ht="15.75" spans="1:5">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="J16" s="28"/>
     </row>
-    <row r="17" ht="15.6" spans="1:10">
+    <row r="17" ht="15.75" spans="1:10">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -2514,7 +2514,7 @@
       </c>
       <c r="J17" s="29"/>
     </row>
-    <row r="18" ht="15.6" spans="1:10">
+    <row r="18" ht="15.75" spans="1:10">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="J18" s="29"/>
     </row>
-    <row r="19" ht="15.6" spans="1:10">
+    <row r="19" ht="15.75" spans="1:10">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -2562,7 +2562,7 @@
       </c>
       <c r="J19" s="29"/>
     </row>
-    <row r="20" ht="15.6" spans="1:10">
+    <row r="20" ht="15.75" spans="1:10">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" ht="15.6" spans="1:10">
+    <row r="21" ht="15.75" spans="1:10">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="J21" s="29"/>
     </row>
-    <row r="22" ht="15.6" spans="1:10">
+    <row r="22" ht="15.75" spans="1:10">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" ht="15.6" spans="1:10">
+    <row r="23" ht="15.75" spans="1:10">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" ht="15.6" spans="1:10">
+    <row r="24" ht="15.75" spans="1:10">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="J24" s="29"/>
     </row>
-    <row r="25" ht="15.6" spans="1:10">
+    <row r="25" ht="15.75" spans="1:10">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="J25" s="29"/>
     </row>
-    <row r="26" ht="15.6" spans="1:10">
+    <row r="26" ht="15.75" spans="1:10">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -2707,21 +2707,23 @@
       <c r="C26" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="25" t="s">
         <v>126</v>
       </c>
       <c r="I26" t="s">
         <v>97</v>
       </c>
-      <c r="J26" s="29"/>
-    </row>
-    <row r="27" ht="15.6" spans="1:10">
+      <c r="J26" s="30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" spans="1:10">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -2742,7 +2744,7 @@
       </c>
       <c r="J27" s="29"/>
     </row>
-    <row r="28" ht="15.6" spans="1:10">
+    <row r="28" ht="15.75" spans="1:10">
       <c r="A28" s="13">
         <v>27</v>
       </c>
@@ -2760,7 +2762,7 @@
       </c>
       <c r="J28" s="29"/>
     </row>
-    <row r="29" ht="15.6" spans="1:10">
+    <row r="29" ht="15.75" spans="1:10">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -2781,7 +2783,7 @@
       </c>
       <c r="J29" s="29"/>
     </row>
-    <row r="30" ht="15.6" spans="1:10">
+    <row r="30" ht="15.75" spans="1:10">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -2802,7 +2804,7 @@
       </c>
       <c r="J30" s="28"/>
     </row>
-    <row r="31" ht="15.6" spans="1:10">
+    <row r="31" ht="15.75" spans="1:10">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -2825,7 +2827,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="32" ht="15.6" spans="1:10">
+    <row r="32" ht="15.75" spans="1:10">
       <c r="A32" s="13">
         <v>31</v>
       </c>
@@ -2846,7 +2848,7 @@
       </c>
       <c r="J32" s="28"/>
     </row>
-    <row r="33" ht="15.6" spans="1:10">
+    <row r="33" ht="15.75" spans="1:10">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -2867,7 +2869,7 @@
       </c>
       <c r="J33" s="29"/>
     </row>
-    <row r="34" ht="15.6" spans="1:10">
+    <row r="34" ht="15.75" spans="1:10">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -2883,12 +2885,14 @@
       <c r="E34" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="J34" s="29"/>
-    </row>
-    <row r="35" ht="15.6" spans="1:10">
+      <c r="J34" s="31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" spans="1:10">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -2988,19 +2992,19 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.1203703703704" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.2222222222222" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.0462962962963" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.3425925925926" style="4" customWidth="1"/>
-    <col min="5" max="5" width="27.8148148148148" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.1111111111111" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.1238938053097" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.2212389380531" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.0442477876106" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.3451327433628" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.8141592920354" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.1150442477876" style="2" customWidth="1"/>
     <col min="7" max="7" width="14" style="2" customWidth="1"/>
-    <col min="8" max="8" width="26.5" style="6" customWidth="1"/>
-    <col min="9" max="9" width="29.3611111111111" customWidth="1"/>
+    <col min="8" max="8" width="26.5044247787611" style="6" customWidth="1"/>
+    <col min="9" max="9" width="29.3628318584071" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="66.5555555555556" customWidth="1"/>
+    <col min="11" max="11" width="66.5575221238938" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="1:10">

--- a/AGV HostName MAC IP.xlsx
+++ b/AGV HostName MAC IP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="8040" activeTab="1"/>
+    <workbookView windowWidth="15127" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="蓝精灵" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="206">
   <si>
     <t>Number</t>
   </si>
@@ -135,9 +135,15 @@
     <t>1415658612（无锡2）</t>
   </si>
   <si>
+    <t>hitrobot-30ee810</t>
+  </si>
+  <si>
     <t>1566218791（无锡10）</t>
   </si>
   <si>
+    <t>hitrobot-30ee811</t>
+  </si>
+  <si>
     <t>1641974105（无锡11）</t>
   </si>
   <si>
@@ -163,6 +169,30 @@
   </si>
   <si>
     <t>hitrobot-30ee819</t>
+  </si>
+  <si>
+    <t>34:7d:f6:5c:e1:4e</t>
+  </si>
+  <si>
+    <t>hitrobot-30ee820</t>
+  </si>
+  <si>
+    <t>d8:3b:bf:52:6c:cd</t>
+  </si>
+  <si>
+    <t>hitrobot-3120721</t>
+  </si>
+  <si>
+    <t>ac:67:5d:93:3c:b7</t>
+  </si>
+  <si>
+    <t>hitrobot-3120722</t>
+  </si>
+  <si>
+    <t>d8:3b:bf:52:db:96</t>
+  </si>
+  <si>
+    <t>hitrobot-3120723</t>
   </si>
   <si>
     <t>Update 18.04</t>
@@ -611,10 +641,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -687,7 +717,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,7 +768,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,37 +798,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,54 +820,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -873,187 +903,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,6 +1121,65 @@
       </top>
       <bottom style="thin">
         <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1133,65 +1222,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1200,10 +1230,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1212,16 +1242,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1230,115 +1260,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1798,8 +1828,8 @@
   <sheetPr/>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2013,8 +2043,11 @@
       <c r="C11" s="14" t="s">
         <v>11</v>
       </c>
+      <c r="D11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="E11" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2024,8 +2057,11 @@
       <c r="C12" s="14" t="s">
         <v>11</v>
       </c>
+      <c r="D12" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2036,7 +2072,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2047,7 +2083,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2058,7 +2094,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E15" s="5">
         <v>445137761</v>
@@ -2072,7 +2108,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2083,7 +2119,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2094,7 +2130,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2105,7 +2141,7 @@
         <v>11</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E19" s="5">
         <v>446285565</v>
@@ -2119,27 +2155,63 @@
         <v>11</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="13">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="5">
+        <v>691156645</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="13">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="5">
+        <v>690797933</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="13">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="5">
+        <v>690765989</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="13">
         <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="5">
+        <v>690786622</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -2212,7 +2284,7 @@
   <sheetPr/>
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E14" workbookViewId="0">
+    <sheetView topLeftCell="E32" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -2260,7 +2332,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:9">
@@ -2268,26 +2340,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="6" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:8">
@@ -2295,25 +2367,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G3" s="2">
         <v>12345678</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:8">
@@ -2321,19 +2393,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2341,10 +2413,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2352,16 +2424,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2369,13 +2441,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2383,13 +2455,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2397,10 +2469,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2408,10 +2480,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2419,10 +2491,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2430,10 +2502,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2441,10 +2513,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="1:5">
@@ -2452,16 +2524,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2469,10 +2541,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E15" s="18">
         <v>1415529238</v>
@@ -2483,7 +2555,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J16" s="28"/>
     </row>
@@ -2492,25 +2564,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="I17" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="J17" s="29"/>
     </row>
@@ -2519,22 +2591,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="I18" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="J18" s="29"/>
     </row>
@@ -2543,22 +2615,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I19" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="J19" s="29"/>
     </row>
@@ -2567,22 +2639,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="J20" s="30" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" ht="15.75" spans="1:10">
@@ -2590,19 +2662,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="J21" s="29"/>
     </row>
@@ -2611,22 +2683,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J22" s="30" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" ht="15.75" spans="1:10">
@@ -2634,22 +2706,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D23" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="J23" s="30" t="s">
         <v>112</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="J23" s="30" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="24" ht="15.75" spans="1:10">
@@ -2657,19 +2729,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J24" s="29"/>
     </row>
@@ -2678,22 +2750,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J25" s="29"/>
     </row>
@@ -2702,25 +2774,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="I26" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="J26" s="30" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" ht="15.75" spans="1:10">
@@ -2728,19 +2800,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="J27" s="29"/>
     </row>
@@ -2749,16 +2821,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="J28" s="29"/>
     </row>
@@ -2767,19 +2839,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="J29" s="29"/>
     </row>
@@ -2788,19 +2860,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="J30" s="28"/>
     </row>
@@ -2809,22 +2881,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="J31" s="31" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" ht="15.75" spans="1:10">
@@ -2832,19 +2904,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="J32" s="28"/>
     </row>
@@ -2853,19 +2925,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="J33" s="29"/>
     </row>
@@ -2874,22 +2946,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D34" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="J34" s="31" t="s">
         <v>156</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="H34" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="J34" s="31" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="35" ht="15.75" spans="1:10">
@@ -2897,22 +2969,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="J35" s="30" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="4:4">
@@ -2923,30 +2995,30 @@
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="17" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="17" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="2:2">
@@ -3044,25 +3116,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3070,19 +3142,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3090,19 +3162,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3110,19 +3182,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3130,19 +3202,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3150,10 +3222,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3161,10 +3233,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3172,10 +3244,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3183,7 +3255,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3191,7 +3263,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3199,7 +3271,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3207,7 +3279,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3215,7 +3287,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3223,7 +3295,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3231,7 +3303,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:1">

--- a/AGV HostName MAC IP.xlsx
+++ b/AGV HostName MAC IP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15127" windowHeight="8040"/>
+    <workbookView windowWidth="19200" windowHeight="8310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="蓝精灵" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="212">
   <si>
     <t>Number</t>
   </si>
@@ -213,10 +213,10 @@
     <t>WET-AGV-5G</t>
   </si>
   <si>
-    <t>192.168.50.101/alpha</t>
-  </si>
-  <si>
-    <t>服务器：192.168.50.72</t>
+    <t>192.168.20.33/alpha</t>
+  </si>
+  <si>
+    <t>服务器：192.168.20.72</t>
   </si>
   <si>
     <t>44:03:2c:71:fb:56</t>
@@ -231,7 +231,7 @@
     <t>WET-AGV</t>
   </si>
   <si>
-    <t>192.168.50.102/alpha</t>
+    <t>192.168.20.34/alpha</t>
   </si>
   <si>
     <t>94:b8:6d:21:e1:57</t>
@@ -243,7 +243,25 @@
     <t>1301723761（伍尔特3）</t>
   </si>
   <si>
-    <t>192.168.50.103/alpha</t>
+    <t>192.168.20.35/alpha</t>
+  </si>
+  <si>
+    <t>04:ea:56:48:51:b1</t>
+  </si>
+  <si>
+    <t>hitrobot-2e9cd08</t>
+  </si>
+  <si>
+    <t>786000570（伍尔特4）</t>
+  </si>
+  <si>
+    <t>00:c2:c6:c3:e6:6e</t>
+  </si>
+  <si>
+    <t>hitrobot-hrg4-2e7cf07</t>
+  </si>
+  <si>
+    <t>1696384390（伍尔特5）</t>
   </si>
   <si>
     <t>1835089733（代傲）</t>
@@ -737,45 +755,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -797,24 +786,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -823,6 +804,29 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -838,17 +842,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -903,187 +921,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1134,47 +1152,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1199,11 +1176,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1222,6 +1205,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1230,10 +1248,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1242,16 +1260,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1260,115 +1278,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1828,7 +1846,7 @@
   <sheetPr/>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -2282,10 +2300,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="E32" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2408,211 +2426,190 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="13">
+    <row r="5" ht="15.75" spans="1:5">
+      <c r="A5" s="13"/>
+      <c r="B5" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:5">
+      <c r="A6" s="13"/>
+      <c r="B6" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="13">
         <v>4</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="13">
-        <v>5</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
       <c r="C7" s="14" t="s">
         <v>61</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="13">
+        <v>5</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="13">
+        <v>6</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="13">
         <v>7</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="13">
-        <v>8</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="13">
-        <v>9</v>
-      </c>
       <c r="C10" s="14" t="s">
         <v>61</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>61</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>61</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>61</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" spans="1:5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="13">
-        <v>13</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="E14" s="18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="13">
+        <v>12</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" spans="1:5">
+      <c r="A16" s="13">
+        <v>13</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="13">
         <v>14</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" s="18">
+      <c r="C17" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="18">
         <v>1415529238</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="13">
+    <row r="18" spans="1:10">
+      <c r="A18" s="13">
         <v>15</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" s="28"/>
-    </row>
-    <row r="17" ht="15.75" spans="1:10">
-      <c r="A17" s="13">
-        <v>16</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="I17" t="s">
-        <v>98</v>
-      </c>
-      <c r="J17" s="29"/>
-    </row>
-    <row r="18" ht="15.75" spans="1:10">
-      <c r="A18" s="13">
-        <v>17</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>99</v>
-      </c>
       <c r="C18" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I18" t="s">
-        <v>103</v>
-      </c>
-      <c r="J18" s="29"/>
+      <c r="J18" s="28"/>
     </row>
     <row r="19" ht="15.75" spans="1:10">
       <c r="A19" s="13">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>99</v>
@@ -2621,415 +2618,464 @@
         <v>61</v>
       </c>
       <c r="D19" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" t="s">
         <v>104</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I19" t="s">
-        <v>107</v>
       </c>
       <c r="J19" s="29"/>
     </row>
     <row r="20" ht="15.75" spans="1:10">
       <c r="A20" s="13">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="24" t="s">
+      <c r="I20" t="s">
         <v>109</v>
       </c>
-      <c r="E20" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="J20" s="30" t="s">
-        <v>112</v>
-      </c>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" ht="15.75" spans="1:10">
       <c r="A21" s="13">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" t="s">
         <v>113</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="J21" s="29"/>
     </row>
     <row r="22" ht="15.75" spans="1:10">
       <c r="A22" s="13">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="24" t="s">
+      <c r="J22" s="30" t="s">
         <v>118</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="J22" s="30" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="23" ht="15.75" spans="1:10">
       <c r="A23" s="13">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="24" t="s">
+      <c r="H23" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="J23" s="30" t="s">
-        <v>112</v>
-      </c>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" ht="15.75" spans="1:10">
       <c r="A24" s="13">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="23" t="s">
+      <c r="H24" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="E24" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="J24" s="29"/>
+      <c r="J24" s="30" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="25" ht="15.75" spans="1:10">
       <c r="A25" s="13">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="23" t="s">
+      <c r="H25" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="E25" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="J25" s="29"/>
+      <c r="J25" s="30" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="26" ht="15.75" spans="1:10">
       <c r="A26" s="13">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="24" t="s">
+      <c r="H26" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E26" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I26" t="s">
-        <v>107</v>
-      </c>
-      <c r="J26" s="30" t="s">
-        <v>112</v>
-      </c>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" ht="15.75" spans="1:10">
       <c r="A27" s="13">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="23" t="s">
+      <c r="F27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="J27" s="29"/>
     </row>
     <row r="28" ht="15.75" spans="1:10">
       <c r="A28" s="13">
-        <v>27</v>
-      </c>
-      <c r="B28" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="23" t="s">
+      <c r="H28" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="J28" s="29"/>
+      <c r="I28" t="s">
+        <v>113</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="29" ht="15.75" spans="1:10">
       <c r="A29" s="13">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="23" t="s">
+      <c r="E29" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="H29" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="J29" s="29"/>
     </row>
     <row r="30" ht="15.75" spans="1:10">
       <c r="A30" s="13">
-        <v>29</v>
-      </c>
-      <c r="B30" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="23" t="s">
+      <c r="H30" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E30" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="J30" s="28"/>
+      <c r="J30" s="29"/>
     </row>
     <row r="31" ht="15.75" spans="1:10">
       <c r="A31" s="13">
-        <v>30</v>
-      </c>
-      <c r="B31" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="23" t="s">
+      <c r="H31" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E31" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="H31" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="J31" s="31" t="s">
-        <v>156</v>
-      </c>
+      <c r="J31" s="29"/>
     </row>
     <row r="32" ht="15.75" spans="1:10">
       <c r="A32" s="13">
-        <v>31</v>
-      </c>
-      <c r="B32" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="H32" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="J32" s="28"/>
     </row>
     <row r="33" ht="15.75" spans="1:10">
       <c r="A33" s="13">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="H33" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="23" t="s">
+      <c r="J33" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="E33" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="J33" s="29"/>
     </row>
     <row r="34" ht="15.75" spans="1:10">
       <c r="A34" s="13">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="E34" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="23" t="s">
+      <c r="H34" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="E34" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="H34" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="J34" s="31" t="s">
-        <v>156</v>
-      </c>
+      <c r="J34" s="28"/>
     </row>
     <row r="35" ht="15.75" spans="1:10">
       <c r="A35" s="13">
+        <v>32</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="J35" s="29"/>
+    </row>
+    <row r="36" ht="15.75" spans="1:10">
+      <c r="A36" s="13">
+        <v>33</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="H36" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="J36" s="31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" spans="1:10">
+      <c r="A37" s="13">
         <v>34</v>
       </c>
-      <c r="B35" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="H35" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="J35" s="30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4">
-      <c r="D36" s="23"/>
-    </row>
-    <row r="37" spans="4:4">
-      <c r="D37" s="23"/>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="E38" s="25" t="s">
+      <c r="B37" s="26" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="17" t="s">
+      <c r="C37" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="E37" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="H37" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="J37" s="30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="23"/>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" s="23"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="D40" s="24" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="17">
+      <c r="E40" s="25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="17">
         <v>117649</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F21:G21"/>
@@ -3047,7 +3093,9 @@
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F41:G41"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3116,25 +3164,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>61</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3142,19 +3190,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3162,19 +3210,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>61</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3182,19 +3230,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>61</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3202,19 +3250,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>61</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3225,7 +3273,7 @@
         <v>61</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3236,7 +3284,7 @@
         <v>61</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3247,7 +3295,7 @@
         <v>61</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:3">

--- a/AGV HostName MAC IP.xlsx
+++ b/AGV HostName MAC IP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8310" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="蓝精灵" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="222">
   <si>
     <t>Number</t>
   </si>
@@ -69,10 +69,13 @@
     <t>172.22.191.72/alpha</t>
   </si>
   <si>
-    <t>00:bb:60:3e:9f:22</t>
-  </si>
-  <si>
-    <t>1195328755（无锡1）</t>
+    <t>d8:3b:bf:52:39:b0</t>
+  </si>
+  <si>
+    <t>hitrobot-2e90b02</t>
+  </si>
+  <si>
+    <t>878443871（无锡1）</t>
   </si>
   <si>
     <t>1171915509（珠海）</t>
@@ -156,37 +159,64 @@
     <t>hitrobot-30ee814</t>
   </si>
   <si>
+    <t>445137761（无锡14）</t>
+  </si>
+  <si>
     <t>hitrobot-30ee815</t>
   </si>
   <si>
+    <t>（无锡15）</t>
+  </si>
+  <si>
     <t>hitrobot-30ee816</t>
   </si>
   <si>
+    <t>（无锡16）</t>
+  </si>
+  <si>
     <t>hitrobot-30ee817</t>
   </si>
   <si>
+    <t>（无锡17）</t>
+  </si>
+  <si>
     <t>hitrobot-30ee818</t>
   </si>
   <si>
+    <t>446285565（无锡18）</t>
+  </si>
+  <si>
     <t>hitrobot-30ee819</t>
   </si>
   <si>
+    <t>（无锡19）</t>
+  </si>
+  <si>
     <t>34:7d:f6:5c:e1:4e</t>
   </si>
   <si>
     <t>hitrobot-30ee820</t>
   </si>
   <si>
+    <t>691156645（天津20）</t>
+  </si>
+  <si>
     <t>d8:3b:bf:52:6c:cd</t>
   </si>
   <si>
     <t>hitrobot-3120721</t>
   </si>
   <si>
+    <t>690797933（天津21）</t>
+  </si>
+  <si>
     <t>ac:67:5d:93:3c:b7</t>
   </si>
   <si>
     <t>hitrobot-3120722</t>
+  </si>
+  <si>
+    <t>690765989（天津22）</t>
   </si>
   <si>
     <t>d8:3b:bf:52:db:96</t>
@@ -659,8 +689,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -734,22 +764,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,9 +787,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -786,11 +816,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -801,9 +831,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -817,13 +846,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -832,24 +854,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -869,6 +891,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="40">
     <fill>
@@ -921,18 +951,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -945,163 +1035,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,9 +1175,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1161,17 +1193,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1206,37 +1256,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1248,10 +1278,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1260,7 +1290,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1269,7 +1299,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1278,115 +1308,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1846,8 +1876,8 @@
   <sheetPr/>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1933,8 +1963,11 @@
       <c r="C3" s="14" t="s">
         <v>11</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="E3" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1946,7 +1979,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1957,7 +1990,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1965,16 +1998,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1982,19 +2015,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2002,19 +2035,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2022,19 +2055,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2042,16 +2075,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2062,10 +2095,10 @@
         <v>11</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2076,10 +2109,10 @@
         <v>11</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2090,7 +2123,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2101,7 +2134,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2112,13 +2145,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="5">
-        <v>445137761</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>46</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -2126,10 +2159,13 @@
         <v>11</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -2137,10 +2173,13 @@
         <v>11</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>50</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -2148,7 +2187,10 @@
         <v>11</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2159,13 +2201,13 @@
         <v>11</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="5">
-        <v>446285565</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>54</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -2173,7 +2215,10 @@
         <v>11</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2181,13 +2226,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="5">
-        <v>691156645</v>
+        <v>59</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2195,13 +2240,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="5">
-        <v>690797933</v>
+        <v>62</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2209,13 +2254,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="5">
-        <v>690765989</v>
+        <v>65</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2223,10 +2268,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E24" s="5">
         <v>690786622</v>
@@ -2302,7 +2347,7 @@
   <sheetPr/>
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -2350,7 +2395,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:9">
@@ -2358,26 +2403,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:8">
@@ -2385,25 +2430,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G3" s="2">
         <v>12345678</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:8">
@@ -2411,49 +2456,49 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:5">
       <c r="A5" s="13"/>
       <c r="B5" s="20" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:5">
       <c r="A6" s="13"/>
       <c r="B6" s="20" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2461,10 +2506,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2472,16 +2517,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2489,13 +2534,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2503,13 +2548,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2517,10 +2562,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2528,10 +2573,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2539,10 +2584,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2550,10 +2595,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2561,10 +2606,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:5">
@@ -2572,16 +2617,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2589,10 +2634,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E17" s="18">
         <v>1415529238</v>
@@ -2603,7 +2648,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="J18" s="28"/>
     </row>
@@ -2612,25 +2657,25 @@
         <v>16</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="I19" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="J19" s="29"/>
     </row>
@@ -2639,22 +2684,22 @@
         <v>17</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="I20" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J20" s="29"/>
     </row>
@@ -2663,22 +2708,22 @@
         <v>18</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="I21" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="J21" s="29"/>
     </row>
@@ -2687,22 +2732,22 @@
         <v>19</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="J22" s="30" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" ht="15.75" spans="1:10">
@@ -2710,19 +2755,19 @@
         <v>20</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J23" s="29"/>
     </row>
@@ -2731,22 +2776,22 @@
         <v>21</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="J24" s="30" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" ht="15.75" spans="1:10">
@@ -2754,22 +2799,22 @@
         <v>22</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D25" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="J25" s="30" t="s">
         <v>128</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="H25" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="J25" s="30" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="26" ht="15.75" spans="1:10">
@@ -2777,19 +2822,19 @@
         <v>23</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="J26" s="29"/>
     </row>
@@ -2798,22 +2843,22 @@
         <v>24</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="J27" s="29"/>
     </row>
@@ -2822,25 +2867,25 @@
         <v>25</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="I28" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="J28" s="30" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" ht="15.75" spans="1:10">
@@ -2848,19 +2893,19 @@
         <v>26</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="J29" s="29"/>
     </row>
@@ -2869,16 +2914,16 @@
         <v>27</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J30" s="29"/>
     </row>
@@ -2887,19 +2932,19 @@
         <v>28</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="J31" s="29"/>
     </row>
@@ -2908,19 +2953,19 @@
         <v>29</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="J32" s="28"/>
     </row>
@@ -2929,22 +2974,22 @@
         <v>30</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J33" s="31" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" ht="15.75" spans="1:10">
@@ -2952,19 +2997,19 @@
         <v>31</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J34" s="28"/>
     </row>
@@ -2973,19 +3018,19 @@
         <v>32</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="J35" s="29"/>
     </row>
@@ -2994,22 +3039,22 @@
         <v>33</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D36" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="H36" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="J36" s="31" t="s">
         <v>172</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="H36" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="J36" s="31" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="37" ht="15.75" spans="1:10">
@@ -3017,22 +3062,22 @@
         <v>34</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="J37" s="30" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="4:4">
@@ -3043,30 +3088,30 @@
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="17" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="17" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="2:2">
@@ -3164,25 +3209,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3190,19 +3235,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3210,19 +3255,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3230,19 +3275,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3250,19 +3295,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3270,10 +3315,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3281,10 +3326,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3292,10 +3337,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3303,7 +3348,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3311,7 +3356,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3319,7 +3364,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3327,7 +3372,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3335,7 +3380,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3343,7 +3388,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3351,7 +3396,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:1">

--- a/AGV HostName MAC IP.xlsx
+++ b/AGV HostName MAC IP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8310"/>
+    <workbookView windowWidth="18232" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="蓝精灵" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="228">
   <si>
     <t>Number</t>
   </si>
@@ -225,6 +225,18 @@
     <t>hitrobot-3120723</t>
   </si>
   <si>
+    <t>hitrobot-3120724</t>
+  </si>
+  <si>
+    <t>（无锡24）</t>
+  </si>
+  <si>
+    <t>hitrobot-3120725</t>
+  </si>
+  <si>
+    <t>（无锡25）</t>
+  </si>
+  <si>
     <t>Update 18.04</t>
   </si>
   <si>
@@ -285,6 +297,9 @@
     <t>786000570（伍尔特4）</t>
   </si>
   <si>
+    <t>192.168.20.36/alpha</t>
+  </si>
+  <si>
     <t>00:c2:c6:c3:e6:6e</t>
   </si>
   <si>
@@ -292,6 +307,9 @@
   </si>
   <si>
     <t>1696384390（伍尔特5）</t>
+  </si>
+  <si>
+    <t>192.168.20.37/alpha</t>
   </si>
   <si>
     <t>1835089733（代傲）</t>
@@ -689,10 +707,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -764,9 +782,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -787,22 +871,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -824,8 +895,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -838,22 +910,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -861,44 +917,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="40">
     <fill>
@@ -951,31 +969,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,151 +1149,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1173,6 +1191,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1193,17 +1241,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1240,36 +1288,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1278,10 +1296,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1290,16 +1308,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1308,115 +1326,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1876,8 +1894,8 @@
   <sheetPr/>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2277,14 +2295,26 @@
         <v>690786622</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:5">
       <c r="A25" s="13">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="D25" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="13">
         <v>25</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -2347,8 +2377,8 @@
   <sheetPr/>
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="B5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2395,7 +2425,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:9">
@@ -2403,26 +2433,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:8">
@@ -2430,25 +2460,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2">
         <v>12345678</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:8">
@@ -2456,49 +2486,55 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" spans="1:5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="1:8">
       <c r="A5" s="13"/>
       <c r="B5" s="20" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" spans="1:5">
+        <v>92</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:8">
       <c r="A6" s="13"/>
       <c r="B6" s="20" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2506,10 +2542,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2517,16 +2553,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2534,13 +2570,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2548,13 +2584,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2562,10 +2598,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2573,10 +2609,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2584,10 +2620,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2595,10 +2631,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2606,10 +2642,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:5">
@@ -2617,16 +2653,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2634,10 +2670,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E17" s="18">
         <v>1415529238</v>
@@ -2648,7 +2684,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J18" s="28"/>
     </row>
@@ -2657,25 +2693,25 @@
         <v>16</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="I19" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="J19" s="29"/>
     </row>
@@ -2684,22 +2720,22 @@
         <v>17</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I20" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="J20" s="29"/>
     </row>
@@ -2708,22 +2744,22 @@
         <v>18</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I21" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="J21" s="29"/>
     </row>
@@ -2732,22 +2768,22 @@
         <v>19</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J22" s="30" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" ht="15.75" spans="1:10">
@@ -2755,19 +2791,19 @@
         <v>20</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="J23" s="29"/>
     </row>
@@ -2776,22 +2812,22 @@
         <v>21</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D24" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="J24" s="30" t="s">
         <v>134</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J24" s="30" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="25" ht="15.75" spans="1:10">
@@ -2799,22 +2835,22 @@
         <v>22</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="J25" s="30" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" ht="15.75" spans="1:10">
@@ -2822,19 +2858,19 @@
         <v>23</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="J26" s="29"/>
     </row>
@@ -2843,22 +2879,22 @@
         <v>24</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="J27" s="29"/>
     </row>
@@ -2867,25 +2903,25 @@
         <v>25</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="I28" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="J28" s="30" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" ht="15.75" spans="1:10">
@@ -2893,19 +2929,19 @@
         <v>26</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="J29" s="29"/>
     </row>
@@ -2914,16 +2950,16 @@
         <v>27</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="J30" s="29"/>
     </row>
@@ -2932,19 +2968,19 @@
         <v>28</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="J31" s="29"/>
     </row>
@@ -2953,19 +2989,19 @@
         <v>29</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="J32" s="28"/>
     </row>
@@ -2974,22 +3010,22 @@
         <v>30</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="J33" s="31" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" ht="15.75" spans="1:10">
@@ -2997,19 +3033,19 @@
         <v>31</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="J34" s="28"/>
     </row>
@@ -3018,19 +3054,19 @@
         <v>32</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J35" s="29"/>
     </row>
@@ -3039,22 +3075,22 @@
         <v>33</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="J36" s="31" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" ht="15.75" spans="1:10">
@@ -3062,22 +3098,22 @@
         <v>34</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="J37" s="30" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="4:4">
@@ -3088,30 +3124,30 @@
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="17" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="17" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="2:2">
@@ -3209,25 +3245,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3235,19 +3271,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3255,19 +3291,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3275,19 +3311,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3295,19 +3331,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3315,10 +3351,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3326,10 +3362,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3337,10 +3373,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3348,7 +3384,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3356,7 +3392,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3364,7 +3400,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3372,7 +3408,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3380,7 +3416,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3388,7 +3424,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3396,7 +3432,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:1">

--- a/AGV HostName MAC IP.xlsx
+++ b/AGV HostName MAC IP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18232" windowHeight="8040"/>
+    <workbookView windowWidth="18637" windowHeight="8310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="蓝精灵" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="214">
   <si>
     <t>Number</t>
   </si>
@@ -228,7 +228,7 @@
     <t>hitrobot-3120724</t>
   </si>
   <si>
-    <t>（无锡24）</t>
+    <t>789977773（无锡24）</t>
   </si>
   <si>
     <t>hitrobot-3120725</t>
@@ -372,12 +372,6 @@
     <t>934675869（群创10）</t>
   </si>
   <si>
-    <t>SH1-FAB-AGV</t>
-  </si>
-  <si>
-    <t>10.63.151.51</t>
-  </si>
-  <si>
     <t>调度服务器：10.63.155.11</t>
   </si>
   <si>
@@ -390,9 +384,6 @@
     <t>903715331（群创01）</t>
   </si>
   <si>
-    <t>10.63.151.52</t>
-  </si>
-  <si>
     <t>wms服务器：10.63.155.12</t>
   </si>
   <si>
@@ -402,87 +393,69 @@
     <t>792309666（群创05）</t>
   </si>
   <si>
-    <t>10.63.151.53</t>
+    <t xml:space="preserve"> wifi:SH1-FAB-AGV</t>
+  </si>
+  <si>
+    <t>00:c2:c6:f2:9a:86</t>
+  </si>
+  <si>
+    <t>hitrobot-30fa13</t>
+  </si>
+  <si>
+    <t>1630920932（群创13）</t>
+  </si>
+  <si>
+    <t>10.63.151.213</t>
+  </si>
+  <si>
+    <t>a0:c5:89:8e:d4:88</t>
+  </si>
+  <si>
+    <t>hitrobot-hrg4-2c05101</t>
+  </si>
+  <si>
+    <t>1683512433（群创11）</t>
+  </si>
+  <si>
+    <t>a0:c5:89:95:a4:2f</t>
+  </si>
+  <si>
+    <t>hitrobot-‭30FA302</t>
+  </si>
+  <si>
+    <t>1709578238（2号皮带车）</t>
+  </si>
+  <si>
+    <t>44:03:2c:b6:84:24</t>
+  </si>
+  <si>
+    <t>hitrobot-‭30FA304</t>
+  </si>
+  <si>
+    <t>179347391（4号皮带车）</t>
+  </si>
+  <si>
+    <t>e4:70:b8:7a:61:c4</t>
+  </si>
+  <si>
+    <t>hitrobot-hrg4-1b8fb7</t>
+  </si>
+  <si>
+    <t>1054970673（群创07）</t>
+  </si>
+  <si>
+    <t>a0:c5:89:6f:e7:08</t>
+  </si>
+  <si>
+    <t>hitrobot-hrg4-1b8fb8</t>
+  </si>
+  <si>
+    <t>1055030201（群创12）</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>00:c2:c6:f2:9a:86</t>
-  </si>
-  <si>
-    <t>hitrobot-hrg4-113ed1d</t>
-  </si>
-  <si>
-    <t>1630920932（群创13）</t>
-  </si>
-  <si>
-    <t>10.63.151.54</t>
-  </si>
-  <si>
-    <t>√</t>
-  </si>
-  <si>
-    <t>a0:c5:89:8e:d4:88</t>
-  </si>
-  <si>
-    <t>hitrobot-hrg4-2c05101</t>
-  </si>
-  <si>
-    <t>1683512433（群创11）</t>
-  </si>
-  <si>
-    <t>10.63.151.55</t>
-  </si>
-  <si>
-    <t>a0:c5:89:95:a4:2f</t>
-  </si>
-  <si>
-    <t>hitrobot-‭30FA302</t>
-  </si>
-  <si>
-    <t>1709578238（2号皮带车）</t>
-  </si>
-  <si>
-    <t>10.63.151.56</t>
-  </si>
-  <si>
-    <t>44:03:2c:b6:84:24</t>
-  </si>
-  <si>
-    <t>hitrobot-‭30FA304</t>
-  </si>
-  <si>
-    <t>179347391（4号皮带车）</t>
-  </si>
-  <si>
-    <t>10.63.151.57</t>
-  </si>
-  <si>
-    <t>e4:70:b8:7a:61:c4</t>
-  </si>
-  <si>
-    <t>hitrobot-hrg4-1b8fb7</t>
-  </si>
-  <si>
-    <t>1054970673（群创07）</t>
-  </si>
-  <si>
-    <t>10.63.151.58</t>
-  </si>
-  <si>
-    <t>a0:c5:89:6f:e7:08</t>
-  </si>
-  <si>
-    <t>hitrobot-hrg4-1b8fb8</t>
-  </si>
-  <si>
-    <t>1055030201（群创12）</t>
-  </si>
-  <si>
-    <t>10.63.151.59</t>
-  </si>
-  <si>
     <t>a0:c5:89:13:5c:b3</t>
   </si>
   <si>
@@ -492,19 +465,16 @@
     <t>1050735586（群创15）</t>
   </si>
   <si>
-    <t>10.63.151.60</t>
-  </si>
-  <si>
     <t>e4:70:b8:87:a7:3a</t>
   </si>
   <si>
-    <t>hitrobot-hrg4-1b8fb5</t>
+    <t>hitrobot-30fa19</t>
   </si>
   <si>
     <t>1054599239（群创19）</t>
   </si>
   <si>
-    <t>10.63.151.61</t>
+    <t>10.63.151.219</t>
   </si>
   <si>
     <t>e4:70:b8:87:aa:af</t>
@@ -513,19 +483,16 @@
     <t>hitrobot-hrg4-1b8fb6</t>
   </si>
   <si>
-    <t>10.63.151.62</t>
-  </si>
-  <si>
     <t>44:03:2c:b6:85:05</t>
   </si>
   <si>
-    <t>hitrobot-hrg4-133edc4</t>
+    <t>hitrobot-30fa08</t>
   </si>
   <si>
     <t>942885357（群创08）</t>
   </si>
   <si>
-    <t>10.63.151.63</t>
+    <t>10.63.151.208</t>
   </si>
   <si>
     <t>a0:c5:89:8e:c9:ac</t>
@@ -537,22 +504,16 @@
     <t>（群创17）P线</t>
   </si>
   <si>
-    <t>10.63.151.64</t>
-  </si>
-  <si>
     <t>e4:70:b8:7a:4b:67</t>
   </si>
   <si>
-    <t>hitrobot-hrg4-2cef008</t>
-  </si>
-  <si>
-    <t>1060983589（群创16）</t>
-  </si>
-  <si>
-    <t>10.63.151.65</t>
-  </si>
-  <si>
-    <t>未外接usb</t>
+    <t>hitrobot-3352b03</t>
+  </si>
+  <si>
+    <t>1060983589（群创3）</t>
+  </si>
+  <si>
+    <t>10.63.151.203</t>
   </si>
   <si>
     <t>f8:59:71:f0:ab:6d</t>
@@ -564,9 +525,6 @@
     <t>1028020996（群创14）</t>
   </si>
   <si>
-    <t>10.63.151.66</t>
-  </si>
-  <si>
     <t>44:03:2c:72:1f:6e</t>
   </si>
   <si>
@@ -576,19 +534,16 @@
     <t>1018800639（群创06）</t>
   </si>
   <si>
-    <t>10.63.151.67</t>
-  </si>
-  <si>
     <t>44:03:2c:b6:3e:bf</t>
   </si>
   <si>
-    <t>hitrobot-hrg4-1b93c5</t>
-  </si>
-  <si>
-    <t>（群创18）</t>
-  </si>
-  <si>
-    <t>10.63.151.68</t>
+    <t>hitrobot-3352b01</t>
+  </si>
+  <si>
+    <t>（群创1）</t>
+  </si>
+  <si>
+    <t>10.63.151.201</t>
   </si>
   <si>
     <t xml:space="preserve"> 44:03:2c:72:0a:d3 </t>
@@ -600,9 +555,6 @@
     <t>（3号皮带车）</t>
   </si>
   <si>
-    <t>10.63.151.70</t>
-  </si>
-  <si>
     <t>a0:c5:89:47:c2:ff</t>
   </si>
   <si>
@@ -624,16 +576,16 @@
     <t>hitrobot-server:hitrob0t</t>
   </si>
   <si>
-    <t>10.63.155.13</t>
+    <t>10.63.155.220</t>
   </si>
   <si>
     <t>a0:c5:89:50:01:63</t>
   </si>
   <si>
-    <t>hitrobot-2c3d701</t>
-  </si>
-  <si>
-    <t>1097003912（欧诺1）</t>
+    <t>hitrobot-30f4211</t>
+  </si>
+  <si>
+    <t>150374298（欧诺1）</t>
   </si>
   <si>
     <t>eupro-agv</t>
@@ -642,55 +594,61 @@
     <t>hitrobot</t>
   </si>
   <si>
-    <t>192.168.8.211</t>
+    <t>192.168.18.191</t>
   </si>
   <si>
     <t>a0:c5:89:8e:f3:5a</t>
   </si>
   <si>
-    <t>hitrobot-2c3d702</t>
-  </si>
-  <si>
-    <t>1624907334（欧诺2）</t>
-  </si>
-  <si>
-    <t>192.168.8.212</t>
+    <t>hitrobot-30f4212</t>
+  </si>
+  <si>
+    <t>1018571372（欧诺2）</t>
+  </si>
+  <si>
+    <t>EUPRO</t>
+  </si>
+  <si>
+    <t>eupro888</t>
+  </si>
+  <si>
+    <t>192.168.18.192</t>
   </si>
   <si>
     <t>a0:c5:89:47:76:d3</t>
   </si>
   <si>
-    <t>hitrobot-2c3d703</t>
+    <t>hitrobot-30f4213</t>
   </si>
   <si>
     <t>1313423539（欧诺3）</t>
   </si>
   <si>
-    <t>192.168.8.213</t>
+    <t>192.168.18.193</t>
   </si>
   <si>
     <t>a0:c5:89:48:d1:4f</t>
   </si>
   <si>
-    <t>hitrobot-2c3d704</t>
+    <t>hitrobot-30f4214</t>
   </si>
   <si>
     <t>1095758823（欧诺4）</t>
   </si>
   <si>
-    <t>192.168.8.214</t>
+    <t>192.168.18.194</t>
   </si>
   <si>
     <t>a0:c5:89:47:b9:4f</t>
   </si>
   <si>
-    <t>hitrobot-2c3d705</t>
+    <t>hitrobot-30f4215</t>
   </si>
   <si>
     <t>1089135627（欧诺5）</t>
   </si>
   <si>
-    <t>192.168.8.215</t>
+    <t>192.168.18.195</t>
   </si>
   <si>
     <t>1444102831（欧诺旧）</t>
@@ -707,12 +665,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -740,6 +698,14 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -783,7 +749,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -797,7 +763,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -805,14 +793,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -827,23 +823,24 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -856,24 +853,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -888,31 +869,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -951,19 +917,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,19 +1073,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,157 +1103,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1192,6 +1158,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1202,6 +1192,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1223,20 +1233,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1255,39 +1254,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1296,10 +1262,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1308,137 +1274,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1490,34 +1456,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1526,13 +1516,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1541,7 +1531,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1894,8 +1884,8 @@
   <sheetPr/>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1907,7 +1897,7 @@
     <col min="5" max="5" width="27.8141592920354" style="5" customWidth="1"/>
     <col min="6" max="6" width="14.1150442477876" style="2" customWidth="1"/>
     <col min="7" max="7" width="14" style="2" customWidth="1"/>
-    <col min="8" max="8" width="26.5044247787611" style="32" customWidth="1"/>
+    <col min="8" max="8" width="26.5044247787611" style="40" customWidth="1"/>
     <col min="9" max="9" width="29.3628318584071" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
     <col min="11" max="11" width="66.5575221238938" customWidth="1"/>
@@ -1964,10 +1954,10 @@
       <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="41" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1992,7 +1982,7 @@
       <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="14" t="s">
         <v>11</v>
       </c>
@@ -2024,7 +2014,7 @@
       <c r="E6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="40" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2044,7 +2034,7 @@
       <c r="E7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="40" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2064,7 +2054,7 @@
       <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="40" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2084,7 +2074,7 @@
       <c r="E9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="40" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2377,22 +2367,22 @@
   <sheetPr/>
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="B5" sqref="$A5:$XFD5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.1238938053097" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.2212389380531" style="17" customWidth="1"/>
+    <col min="2" max="2" width="23.2212389380531" style="18" customWidth="1"/>
     <col min="3" max="3" width="19.0442477876106" style="3" customWidth="1"/>
     <col min="4" max="4" width="26.3451327433628" style="4" customWidth="1"/>
-    <col min="5" max="5" width="27.8141592920354" style="18" customWidth="1"/>
+    <col min="5" max="5" width="27.8141592920354" style="19" customWidth="1"/>
     <col min="6" max="6" width="14.1150442477876" style="2" customWidth="1"/>
     <col min="7" max="7" width="14" style="2" customWidth="1"/>
-    <col min="8" max="8" width="26.5044247787611" style="6" customWidth="1"/>
+    <col min="8" max="8" width="26.5044247787611" style="20" customWidth="1"/>
     <col min="9" max="9" width="29.3628318584071" customWidth="1"/>
-    <col min="10" max="10" width="25.8849557522124" style="19" customWidth="1"/>
+    <col min="10" max="10" width="25.8849557522124" style="21" customWidth="1"/>
     <col min="11" max="11" width="66.5575221238938" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2418,7 +2408,7 @@
       <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="7" t="s">
@@ -2432,7 +2422,7 @@
       <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="23" t="s">
         <v>74</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -2441,14 +2431,14 @@
       <c r="D2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="19" t="s">
         <v>77</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="20" t="s">
         <v>79</v>
       </c>
       <c r="I2" t="s">
@@ -2459,7 +2449,7 @@
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>81</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -2468,7 +2458,7 @@
       <c r="D3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="19" t="s">
         <v>83</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -2477,7 +2467,7 @@
       <c r="G3" s="2">
         <v>12345678</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="20" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2485,7 +2475,7 @@
       <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="23" t="s">
         <v>86</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -2494,16 +2484,16 @@
       <c r="D4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:8">
       <c r="A5" s="13"/>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="23" t="s">
         <v>90</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -2512,16 +2502,16 @@
       <c r="D5" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="20" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:8">
       <c r="A6" s="13"/>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="23" t="s">
         <v>94</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -2530,10 +2520,10 @@
       <c r="D6" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="20" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2544,7 +2534,7 @@
       <c r="C7" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="19" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2555,13 +2545,13 @@
       <c r="C8" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="19" t="s">
         <v>99</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="20" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2572,10 +2562,10 @@
       <c r="C9" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="20" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2586,10 +2576,10 @@
       <c r="C10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="20" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2600,7 +2590,7 @@
       <c r="C11" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="19" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2611,7 +2601,7 @@
       <c r="C12" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="19" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2622,7 +2612,7 @@
       <c r="C13" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="19" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2633,7 +2623,7 @@
       <c r="C14" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="19" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2644,7 +2634,7 @@
       <c r="C15" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="19" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2652,7 +2642,7 @@
       <c r="A16" s="13">
         <v>13</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="23" t="s">
         <v>111</v>
       </c>
       <c r="C16" s="14" t="s">
@@ -2661,7 +2651,7 @@
       <c r="D16" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="19" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2675,7 +2665,7 @@
       <c r="D17" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="19">
         <v>1415529238</v>
       </c>
     </row>
@@ -2686,472 +2676,423 @@
       <c r="C18" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="J18" s="28"/>
+      <c r="J18" s="36"/>
     </row>
     <row r="19" ht="15.75" spans="1:10">
       <c r="A19" s="13">
         <v>16</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="25" t="s">
         <v>115</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="I19" t="s">
         <v>118</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="I19" t="s">
-        <v>120</v>
-      </c>
-      <c r="J19" s="29"/>
+      <c r="J19" s="37"/>
     </row>
     <row r="20" ht="15.75" spans="1:10">
       <c r="A20" s="13">
         <v>17</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="23" t="s">
+      <c r="I20" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="I20" t="s">
-        <v>125</v>
-      </c>
-      <c r="J20" s="29"/>
+      <c r="J20" s="37"/>
     </row>
     <row r="21" ht="15.75" spans="1:10">
       <c r="A21" s="13">
         <v>18</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>121</v>
+      <c r="B21" s="25" t="s">
+        <v>119</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="I21" t="s">
+        <v>125</v>
+      </c>
+      <c r="J21" s="37"/>
+    </row>
+    <row r="22" s="17" customFormat="1" ht="15.75" spans="1:10">
+      <c r="A22" s="27">
+        <v>19</v>
+      </c>
+      <c r="B22" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="C22" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="E22" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="I21" t="s">
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="J21" s="29"/>
-    </row>
-    <row r="22" ht="15.75" spans="1:10">
-      <c r="A22" s="13">
-        <v>19</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="J22" s="30" t="s">
-        <v>134</v>
-      </c>
+      <c r="J22" s="38"/>
     </row>
     <row r="23" ht="15.75" spans="1:10">
       <c r="A23" s="13">
         <v>20</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>135</v>
+      <c r="B23" s="25" t="s">
+        <v>130</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J23" s="29"/>
+      <c r="D23" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="J23" s="37"/>
     </row>
     <row r="24" ht="15.75" spans="1:10">
       <c r="A24" s="13">
         <v>21</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>139</v>
+      <c r="B24" s="25" t="s">
+        <v>133</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="J24" s="30" t="s">
+      <c r="D24" s="26" t="s">
         <v>134</v>
       </c>
+      <c r="E24" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="J24" s="37"/>
     </row>
     <row r="25" ht="15.75" spans="1:10">
       <c r="A25" s="13">
         <v>22</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>143</v>
+      <c r="B25" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="H25" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="J25" s="30" t="s">
-        <v>134</v>
-      </c>
+      <c r="D25" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="J25" s="37"/>
     </row>
     <row r="26" ht="15.75" spans="1:10">
       <c r="A26" s="13">
         <v>23</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>147</v>
+      <c r="B26" s="25" t="s">
+        <v>139</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="J26" s="29"/>
+      <c r="D26" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="J26" s="37"/>
     </row>
     <row r="27" ht="15.75" spans="1:10">
       <c r="A27" s="13">
         <v>24</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>151</v>
+      <c r="B27" s="25" t="s">
+        <v>142</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>153</v>
+      <c r="D27" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>144</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="J27" s="29"/>
+        <v>145</v>
+      </c>
+      <c r="J27" s="37"/>
     </row>
     <row r="28" ht="15.75" spans="1:10">
       <c r="A28" s="13">
         <v>25</v>
       </c>
-      <c r="B28" s="22" t="s">
-        <v>155</v>
+      <c r="B28" s="25" t="s">
+        <v>146</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="H28" s="25" t="s">
-        <v>158</v>
+      <c r="D28" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="I28" t="s">
-        <v>129</v>
-      </c>
-      <c r="J28" s="30" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" spans="1:10">
-      <c r="A29" s="13">
+        <v>145</v>
+      </c>
+      <c r="J28" s="37"/>
+    </row>
+    <row r="29" s="17" customFormat="1" ht="15.75" spans="1:10">
+      <c r="A29" s="27">
         <v>26</v>
       </c>
-      <c r="B29" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="J29" s="29"/>
+      <c r="B29" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="J29" s="38"/>
     </row>
     <row r="30" ht="15.75" spans="1:10">
       <c r="A30" s="13">
         <v>27</v>
       </c>
-      <c r="B30" s="26" t="s">
-        <v>163</v>
+      <c r="B30" s="33" t="s">
+        <v>153</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="J30" s="29"/>
-    </row>
-    <row r="31" ht="15.75" spans="1:10">
-      <c r="A31" s="13">
+      <c r="D30" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="J30" s="37"/>
+    </row>
+    <row r="31" s="17" customFormat="1" ht="15.75" spans="1:10">
+      <c r="A31" s="27">
         <v>28</v>
       </c>
-      <c r="B31" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="J31" s="29"/>
+      <c r="B31" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="J31" s="38"/>
     </row>
     <row r="32" ht="15.75" spans="1:10">
       <c r="A32" s="13">
         <v>29</v>
       </c>
-      <c r="B32" s="22" t="s">
-        <v>170</v>
+      <c r="B32" s="25" t="s">
+        <v>159</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="J32" s="28"/>
-    </row>
-    <row r="33" ht="15.75" spans="1:10">
-      <c r="A33" s="13">
+      <c r="D32" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J32" s="36"/>
+    </row>
+    <row r="33" s="17" customFormat="1" ht="15.75" spans="1:10">
+      <c r="A33" s="27">
         <v>30</v>
       </c>
-      <c r="B33" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="H33" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="J33" s="31" t="s">
-        <v>178</v>
-      </c>
+      <c r="B33" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="J33" s="39"/>
     </row>
     <row r="34" ht="15.75" spans="1:10">
       <c r="A34" s="13">
         <v>31</v>
       </c>
-      <c r="B34" s="26" t="s">
-        <v>179</v>
+      <c r="B34" s="33" t="s">
+        <v>166</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="J34" s="28"/>
+      <c r="D34" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="J34" s="36"/>
     </row>
     <row r="35" ht="15.75" spans="1:10">
       <c r="A35" s="13">
         <v>32</v>
       </c>
-      <c r="B35" s="26" t="s">
-        <v>183</v>
+      <c r="B35" s="33" t="s">
+        <v>169</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="J35" s="29"/>
-    </row>
-    <row r="36" ht="15.75" spans="1:10">
-      <c r="A36" s="13">
+      <c r="D35" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="J35" s="37"/>
+    </row>
+    <row r="36" s="17" customFormat="1" ht="15.75" spans="1:10">
+      <c r="A36" s="27">
         <v>33</v>
       </c>
-      <c r="B36" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="H36" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="J36" s="31" t="s">
-        <v>178</v>
-      </c>
+      <c r="B36" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="J36" s="39"/>
     </row>
     <row r="37" ht="15.75" spans="1:10">
       <c r="A37" s="13">
         <v>34</v>
       </c>
-      <c r="B37" s="26" t="s">
-        <v>191</v>
+      <c r="B37" s="33" t="s">
+        <v>176</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="H37" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="J37" s="30" t="s">
-        <v>134</v>
-      </c>
+      <c r="D37" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J37" s="37"/>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="23"/>
+      <c r="D38" s="26"/>
     </row>
     <row r="39" spans="4:4">
-      <c r="D39" s="23"/>
+      <c r="D39" s="26"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>197</v>
+      <c r="B40" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>200</v>
+      <c r="B41" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="E41" s="35" t="s">
+        <v>184</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>202</v>
+        <v>185</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="17">
+      <c r="B47" s="18">
         <v>117649</v>
       </c>
     </row>
@@ -3189,8 +3130,8 @@
   <sheetPr/>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3245,25 +3186,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>75</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3271,19 +3212,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>211</v>
+        <v>195</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3291,19 +3238,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>75</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3311,19 +3258,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>75</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3331,19 +3278,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>75</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3354,7 +3301,7 @@
         <v>75</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3365,7 +3312,7 @@
         <v>75</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3376,7 +3323,7 @@
         <v>75</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:3">
